--- a/phpprog/cloud/residenza ranitaria (RSA)/bagni.xlsx
+++ b/phpprog/cloud/residenza ranitaria (RSA)/bagni.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\residenza ranitaria (RSA)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollo\Desktop\projects\phpprog\cloud\residenza ranitaria (RSA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB243ECC-C817-4DFE-B045-448F58FE6414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D118E2F4-3E3A-44A7-8CE0-E20C1D04D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{021EF80D-2D41-40FA-A040-400834E88E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{021EF80D-2D41-40FA-A040-400834E88E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="piano interrato 01" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Lavandini per disabili</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Gabinetti per non disabili</t>
+  </si>
+  <si>
+    <t>Collettori</t>
+  </si>
+  <si>
+    <t>stacchi acqua calda</t>
+  </si>
+  <si>
+    <t>stacchi acqua freedda</t>
   </si>
 </sst>
 </file>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C074434-8DC9-4265-A78D-DAF9AC5B7000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,6 +570,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B1DCDC-35A0-4D1B-914B-3EA26A318D4A}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +703,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -677,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DCCD03-7E56-469B-A13B-C7E68BDC5116}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,6 +801,31 @@
         <v>133</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f>B10+B6+B3</f>
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -751,15 +833,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4608DBD9-EC57-45D8-96F8-1D4EDF1EA484}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -816,6 +898,35 @@
       </c>
       <c r="B7" s="2">
         <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f>B10+B6+B3</f>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
